--- a/ShipmentTracking-GoDeliverNCR.xlsx
+++ b/ShipmentTracking-GoDeliverNCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB96317B-6824-4A43-BEBD-D8638CDA5391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E82EC-A536-4911-B47A-BF9F1EB47CAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShipmentTracking" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Sl. No</t>
   </si>
@@ -76,16 +76,19 @@
     <t>RelationShip</t>
   </si>
   <si>
-    <t>godeliverncr</t>
-  </si>
-  <si>
-    <t>12-06-2019 14:31</t>
-  </si>
-  <si>
     <t>Kalaiyarasan</t>
   </si>
   <si>
     <t>Self</t>
+  </si>
+  <si>
+    <t>testpugal</t>
+  </si>
+  <si>
+    <t>15-10-2019 14:31</t>
+  </si>
+  <si>
+    <t>Chennai Hub</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -680,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
